--- a/Codes/data/MaterialDatabase_Mechanical.xlsx
+++ b/Codes/data/MaterialDatabase_Mechanical.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisy\Desktop\DATABASES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisy\Desktop\CO2-Topology-Optimization-main2\Codes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4965F106-DC2D-40BD-BF74-102D58DC83D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69186EAC-1127-4937-A14A-B3170010297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,18 +33,9 @@
     <t>class_id</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
     <t>massDensity</t>
   </si>
   <si>
-    <t>tensileStrength</t>
-  </si>
-  <si>
     <t>A286 Iron</t>
   </si>
   <si>
@@ -319,6 +310,15 @@
   </si>
   <si>
     <t>mat</t>
+  </si>
+  <si>
+    <t>youngsModulus</t>
+  </si>
+  <si>
+    <t>costPerKg</t>
+  </si>
+  <si>
+    <t>yieldStrength</t>
   </si>
 </sst>
 </file>
@@ -725,7 +725,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,7 +743,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -752,24 +752,24 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1060</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -812,10 +812,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -835,10 +835,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -858,10 +858,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -927,10 +927,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -996,10 +996,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1157,10 +1157,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1207,10 +1207,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1234,10 +1234,10 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         <v>1345</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1333,7 +1333,7 @@
         <v>1350</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>2014</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1399,10 +1399,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1448,7 +1448,7 @@
         <v>2018</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1471,7 +1471,7 @@
         <v>2024</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1491,10 +1491,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1537,10 +1537,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1560,10 +1560,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1606,10 +1606,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1652,10 +1652,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1675,10 +1675,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1724,7 +1724,7 @@
         <v>3003</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1744,10 +1744,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1767,10 +1767,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1790,10 +1790,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1813,10 +1813,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1836,10 +1836,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1859,10 +1859,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1905,10 +1905,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1928,10 +1928,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1974,10 +1974,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1997,10 +1997,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2020,10 +2020,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2066,10 +2066,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2115,7 +2115,7 @@
         <v>6061</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2158,10 +2158,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2204,10 +2204,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2227,10 +2227,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2250,10 +2250,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2319,10 +2319,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2342,10 +2342,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2365,10 +2365,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2411,10 +2411,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -2434,10 +2434,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -2457,10 +2457,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -2480,10 +2480,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -2526,10 +2526,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -2572,10 +2572,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -2618,10 +2618,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -2641,10 +2641,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -2664,10 +2664,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -2687,10 +2687,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -2710,10 +2710,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -2733,10 +2733,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -2756,10 +2756,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -2779,10 +2779,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -2825,10 +2825,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -2848,10 +2848,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -2871,10 +2871,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -2894,10 +2894,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2916,8 +2916,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D96:D1048576 D1:D94">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="D96:D1048576 D2:D94">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2928,8 +2928,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96:E1048576 E1:E94">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="E96:E1048576 E2:E94">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2940,8 +2940,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96:F1048576 F1:F94">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="F96:F1048576 F2:F94">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2952,8 +2952,56 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G96:G1048576 G1:G94">
+  <conditionalFormatting sqref="G96:G1048576 G2:G94">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
     <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
